--- a/src/main/resources/modules/Login.xlsx
+++ b/src/main/resources/modules/Login.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="4380" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="20370" yWindow="4830" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>Action</t>
   </si>
@@ -193,12 +193,18 @@
   <si>
     <t>Verify Login in production</t>
   </si>
+  <si>
+    <t>TestEnvName</t>
+  </si>
+  <si>
+    <t>sample101,sample102,sample103,sample104</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +255,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +304,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
       </patternFill>
     </fill>
   </fills>
@@ -429,7 +450,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,6 +574,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,9 +586,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -982,22 +1008,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="82.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -1022,8 +1049,11 @@
       <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="I1" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="24" customFormat="1">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="21" t="s">
@@ -1031,8 +1061,9 @@
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="23"/>
+      <c r="I2" s="49"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1051,6 +1082,33 @@
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="I3" s="50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="I5" s="51"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="I9" s="50"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="I10" s="51"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="I11" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1062,11 +1120,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
@@ -1081,7 +1139,7 @@
     <col min="11" max="11" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16384" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -1119,21 +1177,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16384" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="31"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="33"/>
       <c r="G2" s="32"/>
       <c r="H2" s="31"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16384">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1163,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16384">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -1196,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16384">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -1231,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16384">
       <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
@@ -1266,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16384">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -1301,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16384">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
@@ -1330,14 +1388,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16384">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="14">
         <v>7</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="45" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -17738,7 +17796,7 @@
       <c r="XFC9" s="14"/>
       <c r="XFD9" s="14"/>
     </row>
-    <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16384">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -17774,7 +17832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16384">
       <c r="A11" s="8"/>
       <c r="B11" s="39"/>
       <c r="D11" s="40"/>

--- a/src/main/resources/modules/Login.xlsx
+++ b/src/main/resources/modules/Login.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="4830" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="20370" yWindow="6180" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <t>TestEnvName</t>
   </si>
   <si>
-    <t>sample101,sample102,sample103,sample104</t>
+    <t>sample101</t>
   </si>
 </sst>
 </file>
@@ -577,6 +577,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,11 +591,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="23"/>
-      <c r="I2" s="49"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
@@ -1082,33 +1082,33 @@
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="I4" s="51"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="I5" s="51"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="I6" s="51"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="I7" s="51"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="I8" s="51"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="I9" s="50"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="I10" s="51"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="I11" s="51"/>
+      <c r="I11" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1179,12 +1179,12 @@
     </row>
     <row r="2" spans="1:16384" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="31"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="33"/>
       <c r="G2" s="32"/>
       <c r="H2" s="31"/>

--- a/src/main/resources/modules/Login.xlsx
+++ b/src/main/resources/modules/Login.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="6180" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="20370" yWindow="6630" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <t>TestEnvName</t>
   </si>
   <si>
-    <t>sample101</t>
+    <t>TCEnv101</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/main/resources/modules/Login.xlsx
+++ b/src/main/resources/modules/Login.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="6630" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="20370" yWindow="7080" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <t>TestEnvName</t>
   </si>
   <si>
-    <t>TCEnv101</t>
+    <t>TCEnv101,TCEnv102,TCEnv103,TCEnv104</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/main/resources/modules/Login.xlsx
+++ b/src/main/resources/modules/Login.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSI\AMTAutomationRipo\AMT-TestFrameWork\src\main\resources\modules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amt\AMT-TestFrameWork\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -197,7 +197,7 @@
     <t>TestEnvName</t>
   </si>
   <si>
-    <t>sample101,sample102,sample103,sample104</t>
+    <t>TEnv101,TEnv102,TEnv103,TEnv104</t>
   </si>
 </sst>
 </file>
@@ -577,6 +577,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,11 +591,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="23"/>
-      <c r="I2" s="49"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2">
@@ -1082,33 +1082,33 @@
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="I4" s="51"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="I5" s="51"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="I6" s="51"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="I7" s="51"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="I8" s="51"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="I9" s="50"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="I10" s="51"/>
+      <c r="I10" s="48"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="I11" s="51"/>
+      <c r="I11" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1179,12 +1179,12 @@
     </row>
     <row r="2" spans="1:16384" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="31"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="33"/>
       <c r="G2" s="32"/>
       <c r="H2" s="31"/>
@@ -17882,7 +17882,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="343" operator="equal" id="{A4F100E0-76E8-4EDA-8FFD-69F943F76290}">
-            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17895,7 +17895,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="2" operator="equal" id="{372015BC-BB0A-4A90-8A8A-0D5C5729A250}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17908,7 +17908,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{84A0B3E1-D619-4862-B3C4-3AF190C6E773}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>

--- a/src/main/resources/modules/Login.xlsx
+++ b/src/main/resources/modules/Login.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\AMT-TestFrameWork\src\main\resources\modules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSI\AMTAutomationRipo\AMT-TestFrameWork\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB668248-2564-4AB9-9C46-ACB834421595}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>Action</t>
   </si>
@@ -126,15 +125,6 @@
     <t>UIBase.VerifyPageLoadedTrue</t>
   </si>
   <si>
-    <t>Login page</t>
-  </si>
-  <si>
-    <t>Login Page</t>
-  </si>
-  <si>
-    <t>Common.Login.pgAMTAppLogin</t>
-  </si>
-  <si>
     <t>Set user name</t>
   </si>
   <si>
@@ -200,12 +190,27 @@
   <si>
     <t>TCEnv101,TCEnv102,TCEnv103,TCEnv104</t>
   </si>
+  <si>
+    <t>Common.Login.txtLogin</t>
+  </si>
+  <si>
+    <t>Log in to</t>
+  </si>
+  <si>
+    <t>Login Page text</t>
+  </si>
+  <si>
+    <t>Login page load successfully? Login page load failed</t>
+  </si>
+  <si>
+    <t>Home page load successfully? Home page load fail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +269,23 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -451,7 +473,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,6 +614,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -1008,11 +1038,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1051,7 +1081,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="24" customFormat="1">
@@ -1072,7 +1102,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -1083,8 +1113,8 @@
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="47" t="s">
-        <v>57</v>
+      <c r="I3" s="55" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1118,11 +1148,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1137,7 +1167,8 @@
     <col min="8" max="8" width="14" style="19" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.85546875" customWidth="1"/>
+    <col min="11" max="11" width="85.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1218,7 +1249,7 @@
       <c r="J3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1229,21 +1260,21 @@
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>33</v>
+      <c r="C4" s="28"/>
+      <c r="D4" s="27" t="s">
+        <v>57</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>32</v>
+      <c r="E4" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="53" t="s">
+        <v>56</v>
+      </c>
       <c r="H4" s="19" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>2</v>
@@ -1251,7 +1282,10 @@
       <c r="J4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L4">
+      <c r="K4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1263,19 +1297,19 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>48</v>
+      <c r="G5" s="52" t="s">
+        <v>45</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>11</v>
@@ -1286,7 +1320,7 @@
       <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1298,19 +1332,19 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>49</v>
+      <c r="G6" s="52" t="s">
+        <v>46</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>11</v>
@@ -1321,7 +1355,7 @@
       <c r="J6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1333,18 +1367,18 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="18">
+      <c r="G7" s="54">
         <v>201480</v>
       </c>
       <c r="H7" s="19" t="s">
@@ -1356,7 +1390,7 @@
       <c r="J7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1368,16 +1402,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>2</v>
@@ -1385,7 +1419,7 @@
       <c r="J8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1397,22 +1431,22 @@
         <v>7</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
-      <c r="G9" s="40" t="s">
-        <v>53</v>
+      <c r="G9" s="53" t="s">
+        <v>50</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>2</v>
@@ -1420,7 +1454,9 @@
       <c r="J9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="L9" s="14">
         <v>1</v>
       </c>
@@ -17826,10 +17862,10 @@
       <c r="J10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K10" t="s">
-        <v>50</v>
+      <c r="K10" s="1" t="s">
+        <v>47</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -17838,7 +17874,7 @@
       <c r="B11" s="39"/>
       <c r="D11" s="40"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="40"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="41"/>
       <c r="I11" s="42"/>
       <c r="J11" s="1"/>
@@ -17874,7 +17910,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/src/main/resources/modules/Login.xlsx
+++ b/src/main/resources/modules/Login.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\AMT-TestFrameWork\src\main\resources\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB668248-2564-4AB9-9C46-ACB834421595}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69636E54-2467-4083-85C9-C5AB8E0919BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>Action</t>
   </si>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1209,9 +1209,6 @@
       <c r="G3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" s="26" t="s">
         <v>2</v>
       </c>
@@ -1242,9 +1239,6 @@
         <v>35</v>
       </c>
       <c r="G4" s="16"/>
-      <c r="H4" s="19" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1276,9 +1270,6 @@
       </c>
       <c r="G5" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>11</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>2</v>
@@ -1312,9 +1303,6 @@
       <c r="G6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>11</v>
-      </c>
       <c r="I6" s="26" t="s">
         <v>2</v>
       </c>
@@ -1347,9 +1335,6 @@
       <c r="G7" s="18">
         <v>201480</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>11</v>
-      </c>
       <c r="I7" s="26" t="s">
         <v>2</v>
       </c>
@@ -1375,9 +1360,6 @@
       </c>
       <c r="F8" s="35" t="s">
         <v>42</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>11</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>2</v>

--- a/src/main/resources/modules/Login.xlsx
+++ b/src/main/resources/modules/Login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\AMT-TestFrameWork\src\main\resources\modules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT/AMT-TestFrameWork/src/main/resources/modules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630A0430-D205-49A7-A8E9-75CAB8BF85E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ABB8E5-A238-574F-AC75-9F0838F1ACC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32700" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="19" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>UIBase.navigateToAPage</t>
   </si>
   <si>
-    <t>https://app.amtdirect.com/</t>
-  </si>
-  <si>
     <t>Homepage</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Sanjoy01</t>
   </si>
   <si>
-    <t>P@ssC0de</t>
-  </si>
-  <si>
     <t>Login Successful ? Login fail</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
   </si>
   <si>
     <t>TestEnvName</t>
-  </si>
-  <si>
-    <t>TCEnv101,TCEnv102,TCEnv103,TCEnv104</t>
   </si>
   <si>
     <t>Common.Login.txtLogin</t>
@@ -206,12 +197,21 @@
   <si>
     <t>Verify Login in App</t>
   </si>
+  <si>
+    <t>TCEnv107</t>
+  </si>
+  <si>
+    <t>https://uat.testamt.com/</t>
+  </si>
+  <si>
+    <t>amtDirect01!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,11 +283,6 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Lato"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -476,7 +471,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,7 +525,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -596,7 +590,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -608,14 +601,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,6 +615,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -720,13 +720,9 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Controller"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="TC001_TC050"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1045,20 +1041,20 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="49.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="49.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="16">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -1083,21 +1079,21 @@
       <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="25" t="s">
-        <v>51</v>
+      <c r="I1" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="24" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="21" t="s">
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="16">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
-      <c r="I2" s="46"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="22"/>
+      <c r="I2" s="44"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1105,7 +1101,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -1116,33 +1112,33 @@
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="52" t="s">
-        <v>52</v>
+      <c r="I3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="I4" s="48"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="I5" s="48"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="I6" s="48"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="I7" s="48"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="I8" s="48"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="I9" s="47"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="I10" s="48"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="I11" s="48"/>
+      <c r="I11" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1154,27 +1150,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="63.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="14" style="19" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="27" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="54" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="47.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:16384" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -1187,13 +1183,13 @@
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="9" t="s">
@@ -1212,21 +1208,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16384" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="53" t="s">
-        <v>58</v>
+    <row r="2" spans="1:16384" s="28" customFormat="1" ht="20" customHeight="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="49" t="s">
+        <v>55</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="1:16384">
+    <row r="3" spans="1:16384" ht="16">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -1236,47 +1232,47 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="43" t="s">
-        <v>28</v>
+      <c r="F3" s="37"/>
+      <c r="G3" s="52" t="s">
+        <v>58</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16384">
+    <row r="4" spans="1:16384" ht="16">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="10">
         <v>2</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27" t="s">
-        <v>55</v>
+      <c r="C4" s="27"/>
+      <c r="D4" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>53</v>
+      <c r="F4" s="19" t="s">
+        <v>50</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>54</v>
+      <c r="G4" s="47" t="s">
+        <v>51</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="54" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1286,179 +1282,179 @@
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16384">
+    <row r="5" spans="1:16384" ht="16">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>35</v>
+      <c r="G5" s="53" t="s">
+        <v>43</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16384">
+    <row r="6" spans="1:16384" ht="16">
       <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>36</v>
+      <c r="F6" s="34" t="s">
+        <v>35</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>45</v>
+      <c r="G6" s="53" t="s">
+        <v>59</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="24" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16384">
+    <row r="7" spans="1:16384" ht="16">
       <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
-      <c r="F7" s="35" t="s">
-        <v>37</v>
+      <c r="F7" s="34" t="s">
+        <v>36</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="48">
         <v>201480</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="24" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16384">
+    <row r="8" spans="1:16384" ht="16">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>38</v>
+      <c r="F8" s="34" t="s">
+        <v>37</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="24" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16384">
+    <row r="9" spans="1:16384" ht="16">
       <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="14">
         <v>7</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>50</v>
+      <c r="C9" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="25" t="s">
-        <v>57</v>
+      <c r="K9" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="L9" s="14">
         <v>1</v>
@@ -17836,7 +17832,7 @@
       <c r="XFC9" s="14"/>
       <c r="XFD9" s="14"/>
     </row>
-    <row r="10" spans="1:16384">
+    <row r="10" spans="1:16384" ht="16">
       <c r="A10" s="8" t="s">
         <v>25</v>
       </c>
@@ -17844,19 +17840,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="26" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="16"/>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="54" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -17866,7 +17862,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -17874,12 +17870,12 @@
     </row>
     <row r="11" spans="1:16384">
       <c r="A11" s="8"/>
-      <c r="B11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
+      <c r="B11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="1"/>
     </row>
   </sheetData>
@@ -17922,7 +17918,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="343" operator="equal" id="{A4F100E0-76E8-4EDA-8FFD-69F943F76290}">
-            <xm:f>'C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\DSi\Desktop\backuo\src\main\resources\modules\[sample.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17935,7 +17931,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="2" operator="equal" id="{372015BC-BB0A-4A90-8A8A-0D5C5729A250}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -17948,7 +17944,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{84A0B3E1-D619-4862-B3C4-3AF190C6E773}">
-            <xm:f>'C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
+            <xm:f>'/Users/asif/Library/Containers/com.microsoft.Excel/Data/Documents/C:\Users\naveeng\Documents\Builds\AMTDirectAutomationSuite11\AMTDirectAutomationSuite\Framework\Modules\[PortFolioInsight.xlsx]Controller'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
